--- a/backend/tools/Virus.xlsx
+++ b/backend/tools/Virus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fil_e\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farhad/TRDK03/it2901-trdk03/backend/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D27BAF-D958-442C-8FE0-9474B303DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF6048-658B-0E40-9B1C-EB4613E78FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{62D133A3-7B72-4DCE-AB1C-01FCE12D9907}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{62D133A3-7B72-4DCE-AB1C-01FCE12D9907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,13 +417,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4649C0DB-FF03-41CC-AD2B-021FCBDCB363}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,7 +439,7 @@
         <v>2296900</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2401690</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -455,7 +455,7 @@
         <v>2415260</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,7 +463,7 @@
         <v>2204990</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -471,7 +471,7 @@
         <v>2034610</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -479,7 +479,7 @@
         <v>-268170</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2556680</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -495,7 +495,7 @@
         <v>2150860</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -503,7 +503,7 @@
         <v>2545940</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -511,7 +511,7 @@
         <v>2350420</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -519,7 +519,7 @@
         <v>2414370</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -527,289 +527,289 @@
         <v>2213970</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2182440</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2159710</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2186500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>2080889.9999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1733570</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>-336820</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>2673820</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>2434070</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>2533720</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>2509690</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2312570</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>2419760</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>2342890</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>2330140</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>2270310</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>2789480</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1966080</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>-1176570</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>2550220</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>2360300</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2068150</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2266340</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>2900780</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>1920530</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>2240520</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>1932110</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>2262200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>2302860</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>2269930</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>-693950</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>2007800</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>2508580</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>2400140</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>2536590</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>2816690</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2304870</v>
